--- a/downloaded_files/PHYS102_Tutorial-35334.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240144</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -717,7 +726,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="38.740625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="58.230625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6660113079</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35334.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,15 +229,6 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240144</x:t>
@@ -416,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -726,7 +717,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="38.740625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="58.230625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1511,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45919.7232276273</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1720,38 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.6660113079</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35334.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>Ahmed Mohamed Abdullah Shebl</x:t>
   </x:si>
   <x:si>
-    <x:t>1240030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اواب تامر ذكريا المغازى الشهاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ِAwab Tamer Zakaria</x:t>
-  </x:si>
-  <x:si>
     <x:t>4240056</x:t>
   </x:si>
   <x:si>
@@ -87,15 +78,6 @@
     <x:t>khadija ashraf nasreldin youssef elmenoufi</x:t>
   </x:si>
   <x:si>
-    <x:t>1240315</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد محمد مجدي محمود احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeiad mohamed magdy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240319</x:t>
   </x:si>
   <x:si>
@@ -193,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Ahmed Eltabei Awad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240354</x:t>
@@ -407,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -830,7 +803,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6651261574</x:v>
+        <x:v>45907.7945550926</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -862,7 +835,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.7945550926</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -894,7 +867,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45907.6666383449</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -926,7 +899,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -958,7 +931,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45908.4151870718</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -990,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4207826736</x:v>
+        <x:v>45908.4535035532</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1022,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4151870718</x:v>
+        <x:v>45908.4636332523</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1054,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4535035532</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4636332523</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45908.4639517708</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4639517708</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1571,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1615,102 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45907.666621412</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.6648391551</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6660113079</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35334.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Ahmed Eltabei Awad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240354</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -690,7 +699,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="38.740625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="58.230625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1283,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45920.7167644329</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.6660113079</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35334.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>4250161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم حسن كامل احمد قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Hassan Kamel Ahmed Qasim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240015</x:t>
   </x:si>
   <x:si>
@@ -60,6 +69,15 @@
     <x:t>Basel Mahmoud Younes Ahmed Mouhamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم رضا محمد عبدالحميد السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Reda Mohamed Abdel Hamid El Sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240044</x:t>
   </x:si>
   <x:si>
@@ -121,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>abdelrahman haitham abbas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر حاتم محمد محمود الفحل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Hatem Mohamed Mahmoud Elfahl</x:t>
   </x:si>
   <x:si>
     <x:t>1240104</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -780,7 +789,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6649923264</x:v>
+        <x:v>45922.3696577546</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -812,7 +821,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.7945550926</x:v>
+        <x:v>45907.6649923264</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -844,7 +853,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45907.7945550926</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -876,7 +885,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -908,7 +917,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45922.3727138889</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -940,7 +949,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4151870718</x:v>
+        <x:v>45907.6666383449</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -972,7 +981,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4535035532</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4636332523</x:v>
+        <x:v>45908.4151870718</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45908.4535035532</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45908.4636332523</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4639517708</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45920.7167644329</x:v>
+        <x:v>45908.4639517708</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45920.7167644329</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6660113079</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35334.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Ibrahim Hassan Kamel Ahmed Qasim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عبدالله شبل الشامى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Abdullah Shebl</x:t>
   </x:si>
   <x:si>
     <x:t>4240056</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -821,7 +812,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6649923264</x:v>
+        <x:v>45907.7945550926</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -853,7 +844,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.7945550926</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -885,7 +876,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45922.3727138889</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -917,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45922.3727138889</x:v>
+        <x:v>45907.6666383449</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45908.4151870718</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4151870718</x:v>
+        <x:v>45908.4535035532</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4535035532</x:v>
+        <x:v>45908.4636332523</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4636332523</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45908.4639517708</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4639517708</x:v>
+        <x:v>45920.7167644329</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.7167644329</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.6660113079</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35334.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Serageldeen Atef Gamal Mohamed Othman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240321</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1004,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4535035532</x:v>
+        <x:v>45928.4713758449</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4636332523</x:v>
+        <x:v>45908.4535035532</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45908.4636332523</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4639517708</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45920.7167644329</x:v>
+        <x:v>45908.4639517708</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45920.7167644329</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6660113079</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35334.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد سعد السيد محمد دبور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240144</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1461,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45929.9981445949</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.6660113079</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35334.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35334.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,15 +96,6 @@
     <x:t>Serageldeen Atef Gamal Mohamed Othman</x:t>
   </x:si>
   <x:si>
-    <x:t>4250252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240321</x:t>
   </x:si>
   <x:si>
@@ -220,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد سعد السيد محمد دبور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240144</x:t>
@@ -407,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1022,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45928.4713758449</x:v>
+        <x:v>45908.4535035532</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1054,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4535035532</x:v>
+        <x:v>45908.4636332523</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4636332523</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45908.4149797107</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4149797107</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45908.4639517708</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4639517708</x:v>
+        <x:v>45920.7167644329</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.7167644329</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6749687847</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6749687847</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45929.9981445949</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1647,70 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.6648391551</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6660113079</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
